--- a/files/pdf_report.xlsx
+++ b/files/pdf_report.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C114"/>
+  <dimension ref="A1:C81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,7 +451,7 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4">
@@ -469,7 +469,7 @@
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="n">
-        <v>31</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -478,7 +478,7 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -496,7 +496,7 @@
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -505,7 +505,7 @@
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -523,7 +523,7 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -532,7 +532,7 @@
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -541,7 +541,7 @@
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -550,7 +550,7 @@
       </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -577,7 +577,7 @@
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -586,20 +586,16 @@
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>tata large cap fund</t>
-        </is>
-      </c>
+      <c r="B18" t="inlineStr"/>
       <c r="C18" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -608,11 +604,11 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>tata flexi cap fund</t>
+          <t>franklin india multi cap fund</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20">
@@ -621,24 +617,20 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>tata large &amp; mid cap fund</t>
+          <t>franklin india bluechip fund</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>tata equity p/e fund</t>
-        </is>
-      </c>
+      <c r="B21" t="inlineStr"/>
       <c r="C21" t="n">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22">
@@ -647,11 +639,11 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>tata mid cap growth fund</t>
+          <t>franklin india equity advantage fund</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23">
@@ -660,11 +652,11 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>tata elss tax saver fund</t>
+          <t>franklin india elss tax saver fund</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24">
@@ -673,37 +665,29 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>tata small cap fund</t>
+          <t>franklin india focused equity fund</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>tata focused equity fund</t>
-        </is>
-      </c>
+      <c r="B25" t="inlineStr"/>
       <c r="C25" t="n">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>tata nifty 50 index fund</t>
-        </is>
-      </c>
+      <c r="B26" t="inlineStr"/>
       <c r="C26" t="n">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27">
@@ -712,11 +696,11 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>tata nifty auto index fund</t>
+          <t>franklin india prima fund</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28">
@@ -725,11 +709,11 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>tata nifty india tourism index fund</t>
+          <t>franklin india smaller companies fund</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29">
@@ -738,11 +722,11 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>tata nifty financial services index fund</t>
+          <t>franklin build india fund</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30">
@@ -751,11 +735,11 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>tata nifty midsmall healthcare index fund</t>
+          <t>franklin india opportunities fund</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31">
@@ -764,37 +748,29 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>tata nifty realty index fund</t>
+          <t>franklin india technology fund</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>tata nifty500 multicap india manufacturing 50:30:20 index fund</t>
-        </is>
-      </c>
+      <c r="B32" t="inlineStr"/>
       <c r="C32" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>tata nifty500 multicap infrastructure 50:30:20 index fund</t>
-        </is>
-      </c>
+      <c r="B33" t="inlineStr"/>
       <c r="C33" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34">
@@ -803,11 +779,11 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>tata bse sensex index fund</t>
+          <t>franklin asian equity fund</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35">
@@ -816,11 +792,11 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>tata bse select business groups index fund</t>
+          <t>franklin india nse nifty 50 index fund</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36">
@@ -829,11 +805,11 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>tata nifty 50 exchange traded fund</t>
+          <t>franklin india long duration fund</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37">
@@ -842,11 +818,11 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>tata nifty private bank exchange traded fund</t>
+          <t>franklin india medium to long duration fund</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38">
@@ -855,11 +831,11 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>tata dividend yield fund</t>
+          <t>franklin india ultra short duration fund</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39">
@@ -868,11 +844,11 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>tata nifty india digital etf fund of fund</t>
+          <t>franklin india overnight fund</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40">
@@ -881,11 +857,11 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>tata nifty india digital exchange traded fund</t>
+          <t>franklin india liquid fund</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41">
@@ -894,11 +870,11 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>tata silver exchange traded fund</t>
+          <t>franklin india money market fund</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42">
@@ -907,11 +883,11 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>tata silver etf fund of fund</t>
+          <t>franklin india floating rate fund</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="43">
@@ -920,11 +896,11 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>tata gold exchange traded fund</t>
+          <t>franklin india corporate debt fund</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44">
@@ -933,11 +909,11 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>tata gold etf fund of fund</t>
+          <t>franklin india banking &amp; psu debt fund</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45">
@@ -946,11 +922,11 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>tata nifty midcap 150 momentum 50 index fund</t>
+          <t>franklin india government securities fund</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="46">
@@ -959,11 +935,11 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>tata nifty200 alpha 30 index fund</t>
+          <t>franklin india arbitrage fund</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="47">
@@ -972,11 +948,11 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>tata nifty capital markets index fund</t>
+          <t>franklin india debt hybrid fund</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="48">
@@ -985,11 +961,11 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>tata multicap fund</t>
+          <t>franklin india equity savings fund</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="49">
@@ -998,22 +974,18 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>tata business cycle fund</t>
+          <t>franklin india pension plan</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>tata ethical fund</t>
-        </is>
-      </c>
+      <c r="B50" t="inlineStr"/>
       <c r="C50" t="n">
         <v>18</v>
       </c>
@@ -1024,11 +996,11 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>tata banking &amp; financial services fund</t>
+          <t>franklin india equity hybrid fund</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="52">
@@ -1037,48 +1009,36 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>tata digital india fund</t>
+          <t>franklin india balanced advantage fund</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>tata india consumer fund</t>
-        </is>
-      </c>
+      <c r="B53" t="inlineStr"/>
       <c r="C53" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>tata india pharma &amp; healthcare fund</t>
-        </is>
-      </c>
+      <c r="B54" t="inlineStr"/>
       <c r="C54" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>tata resources &amp; energy fund</t>
-        </is>
-      </c>
+      <c r="B55" t="inlineStr"/>
       <c r="C55" t="n">
         <v>20</v>
       </c>
@@ -1087,651 +1047,234 @@
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>tata infrastructure fund</t>
-        </is>
-      </c>
+      <c r="B56" t="inlineStr"/>
       <c r="C56" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>tata quant fund</t>
-        </is>
-      </c>
+      <c r="B57" t="inlineStr"/>
       <c r="C57" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>tata housing opportunities fund</t>
-        </is>
-      </c>
+      <c r="B58" t="inlineStr"/>
       <c r="C58" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>tata india innovation fund</t>
-        </is>
-      </c>
+      <c r="B59" t="inlineStr"/>
       <c r="C59" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>tata hybrid equity fund</t>
-        </is>
-      </c>
+      <c r="B60" t="inlineStr"/>
       <c r="C60" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>tata equity savings fund</t>
-        </is>
-      </c>
+      <c r="B61" t="inlineStr"/>
       <c r="C61" t="n">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>tata balanced advantage fund</t>
-        </is>
-      </c>
+      <c r="B62" t="inlineStr"/>
       <c r="C62" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>tata balanced advantage fund</t>
-        </is>
-      </c>
+      <c r="B63" t="inlineStr"/>
       <c r="C63" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>tata arbitrage fund</t>
-        </is>
-      </c>
+      <c r="B64" t="inlineStr"/>
       <c r="C64" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>tata arbitrage fund</t>
-        </is>
-      </c>
+      <c r="B65" t="inlineStr"/>
       <c r="C65" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>tata multi asset opportunities fund</t>
-        </is>
-      </c>
+      <c r="B66" t="inlineStr"/>
       <c r="C66" t="n">
-        <v>28</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>tata multi asset opportunities fund</t>
-        </is>
-      </c>
+      <c r="B67" t="inlineStr"/>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>tata short term bond fund</t>
-        </is>
-      </c>
+      <c r="B68" t="inlineStr"/>
       <c r="C68" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>tata treasury advantage fund</t>
-        </is>
-      </c>
+      <c r="B69" t="inlineStr"/>
       <c r="C69" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>tata money market fund</t>
-        </is>
-      </c>
+      <c r="B70" t="inlineStr"/>
       <c r="C70" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>tata ultra short term fund</t>
-        </is>
-      </c>
+      <c r="B71" t="inlineStr"/>
       <c r="C71" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>tata corporate bond fund</t>
-        </is>
-      </c>
+      <c r="B72" t="inlineStr"/>
       <c r="C72" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>tata floating rate fund</t>
-        </is>
-      </c>
+      <c r="B73" t="inlineStr"/>
       <c r="C73" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>tata nifty sdl plus aaa psu bond dec 2027 60:40 index fund</t>
-        </is>
-      </c>
+      <c r="B74" t="inlineStr"/>
       <c r="C74" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>tata crisil-ibx gilt index  april 2026 index fund</t>
-        </is>
-      </c>
+      <c r="B75" t="inlineStr"/>
       <c r="C75" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>tata nifty g-sec dec 2026 index fund</t>
-        </is>
-      </c>
+      <c r="B76" t="inlineStr"/>
       <c r="C76" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>tata nifty g-sec dec 2029 index fund</t>
-        </is>
-      </c>
+      <c r="B77" t="inlineStr"/>
       <c r="C77" t="n">
-        <v>21</v>
+        <v>4</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>tata fixed maturity plan series 61 scheme d (91 days)</t>
-        </is>
-      </c>
+      <c r="B78" t="inlineStr"/>
       <c r="C78" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>tata liquid fund</t>
-        </is>
-      </c>
+      <c r="B79" t="inlineStr"/>
       <c r="C79" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>tata overnight fund</t>
-        </is>
-      </c>
+      <c r="B80" t="inlineStr"/>
       <c r="C80" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>tata gilt securities fund</t>
-        </is>
-      </c>
+      <c r="B81" t="inlineStr"/>
       <c r="C81" t="n">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>tata retirement savings fund - progressive plan</t>
-        </is>
-      </c>
-      <c r="C82" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>tata retirement savings fund - moderate plan</t>
-        </is>
-      </c>
-      <c r="C83" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>tata retirement savings fund - conservative plan</t>
-        </is>
-      </c>
-      <c r="C84" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>tata young citizens’ fund</t>
-        </is>
-      </c>
-      <c r="C85" t="n">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="inlineStr"/>
-      <c r="C86" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="inlineStr"/>
-      <c r="C87" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="inlineStr"/>
-      <c r="C88" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="inlineStr"/>
-      <c r="C89" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="inlineStr"/>
-      <c r="C90" t="n">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="inlineStr"/>
-      <c r="C91" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="inlineStr"/>
-      <c r="C92" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="inlineStr"/>
-      <c r="C93" t="n">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="inlineStr"/>
-      <c r="C94" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="inlineStr"/>
-      <c r="C95" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="inlineStr"/>
-      <c r="C96" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="inlineStr"/>
-      <c r="C97" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="inlineStr"/>
-      <c r="C98" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="inlineStr"/>
-      <c r="C99" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="inlineStr"/>
-      <c r="C100" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="inlineStr"/>
-      <c r="C101" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="inlineStr"/>
-      <c r="C102" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="inlineStr"/>
-      <c r="C103" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="inlineStr"/>
-      <c r="C104" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="inlineStr"/>
-      <c r="C105" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="inlineStr"/>
-      <c r="C106" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="inlineStr"/>
-      <c r="C107" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="inlineStr"/>
-      <c r="C108" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="inlineStr"/>
-      <c r="C109" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="inlineStr"/>
-      <c r="C110" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="inlineStr"/>
-      <c r="C111" t="n">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="inlineStr"/>
-      <c r="C112" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="inlineStr"/>
-      <c r="C113" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="inlineStr"/>
-      <c r="C114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/files/pdf_report.xlsx
+++ b/files/pdf_report.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C114"/>
+  <dimension ref="A1:C81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,7 +451,7 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4">
@@ -469,7 +469,7 @@
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="n">
-        <v>31</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -478,7 +478,7 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -496,7 +496,7 @@
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -505,7 +505,7 @@
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -514,7 +514,7 @@
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -523,7 +523,7 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -532,7 +532,7 @@
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -541,7 +541,7 @@
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="n">
-        <v>32</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -550,7 +550,7 @@
       </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -577,7 +577,7 @@
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -586,20 +586,16 @@
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>tata large cap fund</t>
-        </is>
-      </c>
+      <c r="B18" t="inlineStr"/>
       <c r="C18" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -608,11 +604,11 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>tata flexi cap fund</t>
+          <t>franklin india multi cap fund</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20">
@@ -621,11 +617,11 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>tata large &amp; mid cap fund</t>
+          <t>franklin india bluechip fund</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21">
@@ -634,11 +630,11 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>tata equity p/e fund</t>
+          <t>franklin india flexi cap fund</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>27</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22">
@@ -647,11 +643,11 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>tata mid cap growth fund</t>
+          <t>franklin india equity advantage fund</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23">
@@ -660,11 +656,11 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>tata elss tax saver fund</t>
+          <t>franklin india elss tax saver fund</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24">
@@ -673,11 +669,11 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>tata small cap fund</t>
+          <t>franklin india focused equity fund</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25">
@@ -686,11 +682,11 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>tata focused equity fund</t>
+          <t>templeton india value fund</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26">
@@ -699,11 +695,11 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>tata nifty 50 index fund</t>
+          <t>templeton india equity income fund</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27">
@@ -712,11 +708,11 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>tata nifty auto index fund</t>
+          <t>franklin india prima fund</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28">
@@ -725,11 +721,11 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>tata nifty india tourism index fund</t>
+          <t>franklin india smaller companies fund</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29">
@@ -738,11 +734,11 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>tata nifty financial services index fund</t>
+          <t>franklin build india fund</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30">
@@ -751,11 +747,11 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>tata nifty midsmall healthcare index fund</t>
+          <t>franklin india opportunities fund</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31">
@@ -764,11 +760,11 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>tata nifty realty index fund</t>
+          <t>franklin india technology fund</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32">
@@ -777,11 +773,11 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>tata nifty500 multicap india manufacturing 50:30:20 index fund</t>
+          <t>franklin india feeder - franklin u.s. opportunities fund</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33">
@@ -790,11 +786,11 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>tata nifty500 multicap infrastructure 50:30:20 index fund</t>
+          <t>franklin india feeder - templeton european opportunities fund</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34">
@@ -803,11 +799,11 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>tata bse sensex index fund</t>
+          <t>franklin asian equity fund</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35">
@@ -816,11 +812,11 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>tata bse select business groups index fund</t>
+          <t>franklin india nse nifty 50 index fund</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36">
@@ -829,11 +825,11 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>tata nifty 50 exchange traded fund</t>
+          <t>franklin india long duration fund</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37">
@@ -842,11 +838,11 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>tata nifty private bank exchange traded fund</t>
+          <t>franklin india medium to long duration fund</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38">
@@ -855,11 +851,11 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>tata dividend yield fund</t>
+          <t>franklin india ultra short duration fund</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39">
@@ -868,11 +864,11 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>tata nifty india digital etf fund of fund</t>
+          <t>franklin india overnight fund</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40">
@@ -881,11 +877,11 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>tata nifty india digital exchange traded fund</t>
+          <t>franklin india liquid fund</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41">
@@ -894,11 +890,11 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>tata silver exchange traded fund</t>
+          <t>franklin india money market fund</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42">
@@ -907,11 +903,11 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>tata silver etf fund of fund</t>
+          <t>franklin india floating rate fund</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43">
@@ -920,11 +916,11 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>tata gold exchange traded fund</t>
+          <t>franklin india corporate debt fund</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="44">
@@ -933,11 +929,11 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>tata gold etf fund of fund</t>
+          <t>franklin india banking &amp; psu debt fund</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="45">
@@ -946,11 +942,11 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>tata nifty midcap 150 momentum 50 index fund</t>
+          <t>franklin india government securities fund</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="46">
@@ -959,11 +955,11 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>tata nifty200 alpha 30 index fund</t>
+          <t>franklin india arbitrage fund</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47">
@@ -972,11 +968,11 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>tata nifty capital markets index fund</t>
+          <t>franklin india debt hybrid fund</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="48">
@@ -985,11 +981,11 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>tata multicap fund</t>
+          <t>franklin india equity savings fund</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49">
@@ -998,11 +994,11 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>tata business cycle fund</t>
+          <t>franklin india pension plan</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="50">
@@ -1011,11 +1007,11 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>tata ethical fund</t>
+          <t>franklin india multi-asset solution fund of funds</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51">
@@ -1024,11 +1020,11 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>tata banking &amp; financial services fund</t>
+          <t>franklin india equity hybrid fund</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="52">
@@ -1037,701 +1033,272 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>tata digital india fund</t>
+          <t>franklin india balanced advantage fund</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>tata india consumer fund</t>
-        </is>
-      </c>
+      <c r="B53" t="inlineStr"/>
       <c r="C53" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>tata india pharma &amp; healthcare fund</t>
-        </is>
-      </c>
+      <c r="B54" t="inlineStr"/>
       <c r="C54" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>tata resources &amp; energy fund</t>
-        </is>
-      </c>
+      <c r="B55" t="inlineStr"/>
       <c r="C55" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>tata infrastructure fund</t>
-        </is>
-      </c>
+      <c r="B56" t="inlineStr"/>
       <c r="C56" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>tata quant fund</t>
-        </is>
-      </c>
+      <c r="B57" t="inlineStr"/>
       <c r="C57" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>tata housing opportunities fund</t>
-        </is>
-      </c>
+      <c r="B58" t="inlineStr"/>
       <c r="C58" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>tata india innovation fund</t>
-        </is>
-      </c>
+      <c r="B59" t="inlineStr"/>
       <c r="C59" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>tata hybrid equity fund</t>
-        </is>
-      </c>
+      <c r="B60" t="inlineStr"/>
       <c r="C60" t="n">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>tata equity savings fund</t>
-        </is>
-      </c>
+      <c r="B61" t="inlineStr"/>
       <c r="C61" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>tata balanced advantage fund</t>
-        </is>
-      </c>
+      <c r="B62" t="inlineStr"/>
       <c r="C62" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>tata balanced advantage fund</t>
-        </is>
-      </c>
+      <c r="B63" t="inlineStr"/>
       <c r="C63" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>tata arbitrage fund</t>
-        </is>
-      </c>
+      <c r="B64" t="inlineStr"/>
       <c r="C64" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>tata arbitrage fund</t>
-        </is>
-      </c>
+      <c r="B65" t="inlineStr"/>
       <c r="C65" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>tata multi asset opportunities fund</t>
-        </is>
-      </c>
+      <c r="B66" t="inlineStr"/>
       <c r="C66" t="n">
-        <v>31</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>tata multi asset opportunities fund</t>
-        </is>
-      </c>
+      <c r="B67" t="inlineStr"/>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>tata short term bond fund</t>
-        </is>
-      </c>
+      <c r="B68" t="inlineStr"/>
       <c r="C68" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>tata treasury advantage fund</t>
-        </is>
-      </c>
+      <c r="B69" t="inlineStr"/>
       <c r="C69" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>tata money market fund</t>
-        </is>
-      </c>
+      <c r="B70" t="inlineStr"/>
       <c r="C70" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>tata ultra short term fund</t>
-        </is>
-      </c>
+      <c r="B71" t="inlineStr"/>
       <c r="C71" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>tata corporate bond fund</t>
-        </is>
-      </c>
+      <c r="B72" t="inlineStr"/>
       <c r="C72" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>tata floating rate fund</t>
-        </is>
-      </c>
+      <c r="B73" t="inlineStr"/>
       <c r="C73" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>tata nifty sdl plus aaa psu bond dec 2027 60:40 index fund</t>
-        </is>
-      </c>
+      <c r="B74" t="inlineStr"/>
       <c r="C74" t="n">
-        <v>21</v>
+        <v>4</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>tata crisil-ibx gilt index  april 2026 index fund</t>
-        </is>
-      </c>
+      <c r="B75" t="inlineStr"/>
       <c r="C75" t="n">
-        <v>21</v>
+        <v>4</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>tata nifty g-sec dec 2026 index fund</t>
-        </is>
-      </c>
+      <c r="B76" t="inlineStr"/>
       <c r="C76" t="n">
-        <v>21</v>
+        <v>4</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>tata nifty g-sec dec 2029 index fund</t>
-        </is>
-      </c>
+      <c r="B77" t="inlineStr"/>
       <c r="C77" t="n">
-        <v>22</v>
+        <v>4</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>tata fixed maturity plan series 61 scheme d (91 days)</t>
-        </is>
-      </c>
+      <c r="B78" t="inlineStr"/>
       <c r="C78" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>tata liquid fund</t>
-        </is>
-      </c>
+      <c r="B79" t="inlineStr"/>
       <c r="C79" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>tata overnight fund</t>
-        </is>
-      </c>
+      <c r="B80" t="inlineStr"/>
       <c r="C80" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>tata gilt securities fund</t>
-        </is>
-      </c>
+      <c r="B81" t="inlineStr"/>
       <c r="C81" t="n">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>tata retirement savings fund - progressive plan</t>
-        </is>
-      </c>
-      <c r="C82" t="n">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>tata retirement savings fund - moderate plan</t>
-        </is>
-      </c>
-      <c r="C83" t="n">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>tata retirement savings fund - conservative plan</t>
-        </is>
-      </c>
-      <c r="C84" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>tata young citizens’ fund</t>
-        </is>
-      </c>
-      <c r="C85" t="n">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="inlineStr"/>
-      <c r="C86" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="inlineStr"/>
-      <c r="C87" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="inlineStr"/>
-      <c r="C88" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="inlineStr"/>
-      <c r="C89" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="inlineStr"/>
-      <c r="C90" t="n">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="inlineStr"/>
-      <c r="C91" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="inlineStr"/>
-      <c r="C92" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="inlineStr"/>
-      <c r="C93" t="n">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="inlineStr"/>
-      <c r="C94" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="inlineStr"/>
-      <c r="C95" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="inlineStr"/>
-      <c r="C96" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="inlineStr"/>
-      <c r="C97" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="inlineStr"/>
-      <c r="C98" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="inlineStr"/>
-      <c r="C99" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="inlineStr"/>
-      <c r="C100" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="inlineStr"/>
-      <c r="C101" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="inlineStr"/>
-      <c r="C102" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="inlineStr"/>
-      <c r="C103" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="inlineStr"/>
-      <c r="C104" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="inlineStr"/>
-      <c r="C105" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="inlineStr"/>
-      <c r="C106" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="inlineStr"/>
-      <c r="C107" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="inlineStr"/>
-      <c r="C108" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="inlineStr"/>
-      <c r="C109" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="inlineStr"/>
-      <c r="C110" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="inlineStr"/>
-      <c r="C111" t="n">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="inlineStr"/>
-      <c r="C112" t="n">
         <v>0</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="inlineStr"/>
-      <c r="C113" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="inlineStr"/>
-      <c r="C114" t="n">
-        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/files/pdf_report.xlsx
+++ b/files/pdf_report.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C81"/>
+  <dimension ref="A1:C94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -469,7 +469,7 @@
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -505,7 +505,7 @@
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -514,7 +514,7 @@
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -523,7 +523,7 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -532,70 +532,98 @@
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr"/>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>edelweiss</t>
+        </is>
+      </c>
       <c r="C12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr"/>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>edelweiss</t>
+        </is>
+      </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr"/>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>edelweiss</t>
+        </is>
+      </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr"/>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>edelweiss</t>
+        </is>
+      </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr"/>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>edelweiss</t>
+        </is>
+      </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr"/>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>edelweiss recently</t>
+        </is>
+      </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr"/>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>edelweiss elss</t>
+        </is>
+      </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19">
@@ -604,11 +632,11 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>franklin india multi cap fund</t>
+          <t>edelweiss</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20">
@@ -617,11 +645,11 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>franklin india bluechip fund</t>
+          <t>edelweiss</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21">
@@ -630,11 +658,11 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>franklin india flexi cap fund</t>
+          <t>edelweiss</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22">
@@ -643,11 +671,11 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>franklin india equity advantage fund</t>
+          <t>edelweiss business</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23">
@@ -656,11 +684,11 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>franklin india elss tax saver fund</t>
+          <t>edelweiss</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24">
@@ -669,11 +697,11 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>franklin india focused equity fund</t>
+          <t>edelweiss</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25">
@@ -682,11 +710,11 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>templeton india value fund</t>
+          <t>edelweiss</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26">
@@ -695,11 +723,11 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>templeton india equity income fund</t>
+          <t>edelweiss</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27">
@@ -708,11 +736,11 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>franklin india prima fund</t>
+          <t>edelweiss multi</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28">
@@ -721,11 +749,11 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>franklin india smaller companies fund</t>
+          <t>edelweiss</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29">
@@ -734,11 +762,11 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>franklin build india fund</t>
+          <t>edelweiss</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30">
@@ -747,11 +775,11 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>franklin india opportunities fund</t>
+          <t>edelweiss</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31">
@@ -760,11 +788,11 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>franklin india technology fund</t>
+          <t>edelweiss nifty</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32">
@@ -773,11 +801,11 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>franklin india feeder - franklin u.s. opportunities fund</t>
+          <t>edelweiss</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33">
@@ -786,11 +814,11 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>franklin india feeder - templeton european opportunities fund</t>
+          <t>edelweiss</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34">
@@ -799,7 +827,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>franklin asian equity fund</t>
+          <t>edelweiss</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -812,11 +840,11 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>franklin india nse nifty 50 index fund</t>
+          <t>edelweiss</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36">
@@ -825,89 +853,65 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>franklin india long duration fund</t>
+          <t>edelweiss</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>franklin india medium to long duration fund</t>
-        </is>
-      </c>
+      <c r="B37" t="inlineStr"/>
       <c r="C37" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>franklin india ultra short duration fund</t>
-        </is>
-      </c>
+      <c r="B38" t="inlineStr"/>
       <c r="C38" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>franklin india overnight fund</t>
-        </is>
-      </c>
+      <c r="B39" t="inlineStr"/>
       <c r="C39" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>franklin india liquid fund</t>
-        </is>
-      </c>
+      <c r="B40" t="inlineStr"/>
       <c r="C40" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>franklin india money market fund</t>
-        </is>
-      </c>
+      <c r="B41" t="inlineStr"/>
       <c r="C41" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>franklin india floating rate fund</t>
-        </is>
-      </c>
+      <c r="B42" t="inlineStr"/>
       <c r="C42" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -916,11 +920,11 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>franklin india corporate debt fund</t>
+          <t>edelweiss crisil ibx</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44">
@@ -929,11 +933,11 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>franklin india banking &amp; psu debt fund</t>
+          <t>bharat bond etf</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45">
@@ -942,11 +946,11 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>franklin india government securities fund</t>
+          <t>edelweiss crisil</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46">
@@ -955,11 +959,11 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>franklin india arbitrage fund</t>
+          <t>edelweiss nifty</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47">
@@ -968,11 +972,11 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>franklin india debt hybrid fund</t>
+          <t>edelweiss nifty</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48">
@@ -981,11 +985,11 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>franklin india equity savings fund</t>
+          <t>edelweiss crisil ibx</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49">
@@ -994,11 +998,11 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>franklin india pension plan</t>
+          <t>edelweiss crisil ibx</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50">
@@ -1007,11 +1011,11 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>franklin india multi-asset solution fund of funds</t>
+          <t>edelweiss crisil</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51">
@@ -1020,11 +1024,11 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>franklin india equity hybrid fund</t>
+          <t>bharat bond etf</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52">
@@ -1033,236 +1037,336 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>franklin india balanced advantage fund</t>
+          <t>bharat bond etf</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr"/>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>bharat bond etf</t>
+        </is>
+      </c>
       <c r="C53" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr"/>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>bharat bond etf</t>
+        </is>
+      </c>
       <c r="C54" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr"/>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>edelweiss crisil ibx</t>
+        </is>
+      </c>
       <c r="C55" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr"/>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>edelweiss nifty 50</t>
+        </is>
+      </c>
       <c r="C56" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr"/>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>edelweiss nifty 100</t>
+        </is>
+      </c>
       <c r="C57" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr"/>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>edelweiss bse</t>
+        </is>
+      </c>
       <c r="C58" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr"/>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>edelweiss nifty500</t>
+        </is>
+      </c>
       <c r="C59" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr"/>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>edelweiss nifty500</t>
+        </is>
+      </c>
       <c r="C60" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr"/>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>edelweiss nifty</t>
+        </is>
+      </c>
       <c r="C61" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr"/>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>edelweiss msci india</t>
+        </is>
+      </c>
       <c r="C62" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="inlineStr"/>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>edelweiss nifty</t>
+        </is>
+      </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="inlineStr"/>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>edelweiss nifty</t>
+        </is>
+      </c>
       <c r="C64" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="inlineStr"/>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>edelweiss nifty</t>
+        </is>
+      </c>
       <c r="C65" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="inlineStr"/>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>edelweiss</t>
+        </is>
+      </c>
       <c r="C66" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="inlineStr"/>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>bharat bond fof</t>
+        </is>
+      </c>
       <c r="C67" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" t="inlineStr"/>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>bharat bond fof</t>
+        </is>
+      </c>
       <c r="C68" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69" t="inlineStr"/>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>bharat bond fof</t>
+        </is>
+      </c>
       <c r="C69" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="inlineStr"/>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>bharat bond etf</t>
+        </is>
+      </c>
       <c r="C70" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B71" t="inlineStr"/>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>bharat bond etf</t>
+        </is>
+      </c>
       <c r="C71" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B72" t="inlineStr"/>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>edelweiss greater</t>
+        </is>
+      </c>
       <c r="C72" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B73" t="inlineStr"/>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>edelweiss us</t>
+        </is>
+      </c>
       <c r="C73" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B74" t="inlineStr"/>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>edelweiss</t>
+        </is>
+      </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B75" t="inlineStr"/>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>edelweiss</t>
+        </is>
+      </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B76" t="inlineStr"/>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>edelweiss</t>
+        </is>
+      </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="B77" t="inlineStr"/>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>edelweiss</t>
+        </is>
+      </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="78">
@@ -1271,7 +1375,7 @@
       </c>
       <c r="B78" t="inlineStr"/>
       <c r="C78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -1280,7 +1384,7 @@
       </c>
       <c r="B79" t="inlineStr"/>
       <c r="C79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -1298,6 +1402,123 @@
       </c>
       <c r="B81" t="inlineStr"/>
       <c r="C81" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr"/>
+      <c r="C82" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr"/>
+      <c r="C83" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr"/>
+      <c r="C84" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr"/>
+      <c r="C85" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr"/>
+      <c r="C86" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr"/>
+      <c r="C87" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr"/>
+      <c r="C88" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr"/>
+      <c r="C89" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr"/>
+      <c r="C90" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr"/>
+      <c r="C91" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr"/>
+      <c r="C92" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr"/>
+      <c r="C93" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr"/>
+      <c r="C94" t="n">
         <v>0</v>
       </c>
     </row>

--- a/files/pdf_report.xlsx
+++ b/files/pdf_report.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C94"/>
+  <dimension ref="A1:C76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,7 +469,7 @@
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -478,7 +478,7 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -496,7 +496,7 @@
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -514,7 +514,7 @@
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -532,20 +532,16 @@
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>edelweiss</t>
-        </is>
-      </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="n">
-        <v>9</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13">
@@ -554,11 +550,11 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>edelweiss</t>
+          <t>quant small cap fund</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -567,11 +563,11 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>edelweiss</t>
+          <t>quant small cap fund</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15">
@@ -580,11 +576,11 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>edelweiss</t>
+          <t>quant elss tax saver fund</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -593,11 +589,11 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>edelweiss</t>
+          <t>quant elss tax saver fund</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17">
@@ -606,11 +602,11 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>edelweiss recently</t>
+          <t>quant active fund</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -619,11 +615,11 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>edelweiss elss</t>
+          <t>quant active fund</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19">
@@ -632,11 +628,11 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>edelweiss</t>
+          <t>quant mid cap fund</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -645,11 +641,11 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>edelweiss</t>
+          <t>quant mid cap fund</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21">
@@ -658,11 +654,11 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>edelweiss</t>
+          <t>quant flexi cap fund</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -671,11 +667,11 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>edelweiss business</t>
+          <t>quant flexi cap fund</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23">
@@ -684,11 +680,11 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>edelweiss</t>
+          <t>quant large &amp; mid cap fund</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -697,11 +693,11 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>edelweiss</t>
+          <t>quant large &amp; mid cap fund</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25">
@@ -710,11 +706,11 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>edelweiss</t>
+          <t>quant infrastructure fund</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -723,11 +719,11 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>edelweiss</t>
+          <t>quant infrastructure fund</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27">
@@ -736,11 +732,11 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>edelweiss multi</t>
+          <t>quant large cap fund</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -749,11 +745,11 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>edelweiss</t>
+          <t>quant large cap fund</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29">
@@ -762,11 +758,11 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>edelweiss</t>
+          <t>quant quantamental fund</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30">
@@ -775,11 +771,11 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>edelweiss</t>
+          <t>quant quantamental fund</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31">
@@ -788,11 +784,11 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>edelweiss nifty</t>
+          <t>quant absolute fund</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -801,11 +797,11 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>edelweiss</t>
+          <t>quant absolute fund</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33">
@@ -814,11 +810,11 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>edelweiss</t>
+          <t>quant momentum fund</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34">
@@ -827,11 +823,11 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>edelweiss</t>
+          <t>quant momentum fund</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35">
@@ -840,11 +836,11 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>edelweiss</t>
+          <t>quant value fund</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -853,65 +849,89 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>edelweiss</t>
+          <t>quant value fund</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr"/>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>quant business cycle fund</t>
+        </is>
+      </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr"/>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>quant business cycle fund</t>
+        </is>
+      </c>
       <c r="C38" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr"/>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>quant dynamic asset allocation fund</t>
+        </is>
+      </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr"/>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>quant dynamic asset allocation fund</t>
+        </is>
+      </c>
       <c r="C40" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr"/>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>quant focused fund</t>
+        </is>
+      </c>
       <c r="C41" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr"/>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>quant focused fund</t>
+        </is>
+      </c>
       <c r="C42" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43">
@@ -920,11 +940,11 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>edelweiss crisil ibx</t>
+          <t>quant manufacturing fund</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44">
@@ -933,11 +953,11 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>bharat bond etf</t>
+          <t>quant manufacturing fund</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="45">
@@ -946,11 +966,11 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>edelweiss crisil</t>
+          <t>quant psu fund</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -959,11 +979,11 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>edelweiss nifty</t>
+          <t>quant psu fund</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47">
@@ -972,11 +992,11 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>edelweiss nifty</t>
+          <t>quant bfsi fund</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48">
@@ -985,11 +1005,11 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>edelweiss crisil ibx</t>
+          <t>quant bfsi fund</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="49">
@@ -998,11 +1018,11 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>edelweiss crisil ibx</t>
+          <t>quant teck fund</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -1011,11 +1031,11 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>edelweiss crisil</t>
+          <t>quant teck fund</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="51">
@@ -1024,11 +1044,11 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>bharat bond etf</t>
+          <t>quant commodities fund</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -1037,11 +1057,11 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>bharat bond etf</t>
+          <t>quant commodities fund</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="53">
@@ -1050,11 +1070,11 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>bharat bond etf</t>
+          <t>quant healthcare fund</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -1063,11 +1083,11 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>bharat bond etf</t>
+          <t>quant healthcare fund</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="55">
@@ -1076,11 +1096,11 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>edelweiss crisil ibx</t>
+          <t>quant consumption fund</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1089,11 +1109,11 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>edelweiss nifty 50</t>
+          <t>quant consumption fund</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57">
@@ -1102,11 +1122,11 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>edelweiss nifty 100</t>
+          <t>quant esg equity fund</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -1115,11 +1135,11 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>edelweiss bse</t>
+          <t>quant esg equity fund</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59">
@@ -1128,11 +1148,11 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>edelweiss nifty500</t>
+          <t>quant multi asset fund</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -1141,24 +1161,20 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>edelweiss nifty500</t>
+          <t>quant multi asset fund</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>edelweiss nifty</t>
-        </is>
-      </c>
+      <c r="B61" t="inlineStr"/>
       <c r="C61" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="62">
@@ -1167,11 +1183,11 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>edelweiss msci india</t>
+          <t>quant liquid fund</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -1180,11 +1196,11 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>edelweiss nifty</t>
+          <t>quant liquid fund</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="64">
@@ -1193,11 +1209,11 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>edelweiss nifty</t>
+          <t>quant overnight fund</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -1206,11 +1222,11 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>edelweiss nifty</t>
+          <t>quant overnight fund</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66">
@@ -1219,11 +1235,11 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>edelweiss</t>
+          <t>quant gilt fund</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -1232,293 +1248,91 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>bharat bond fof</t>
+          <t>quant gilt fund</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>bharat bond fof</t>
-        </is>
-      </c>
+      <c r="B68" t="inlineStr"/>
       <c r="C68" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>bharat bond fof</t>
-        </is>
-      </c>
+      <c r="B69" t="inlineStr"/>
       <c r="C69" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>bharat bond etf</t>
-        </is>
-      </c>
+      <c r="B70" t="inlineStr"/>
       <c r="C70" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>bharat bond etf</t>
-        </is>
-      </c>
+      <c r="B71" t="inlineStr"/>
       <c r="C71" t="n">
-        <v>9</v>
+        <v>27</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>edelweiss greater</t>
-        </is>
-      </c>
+      <c r="B72" t="inlineStr"/>
       <c r="C72" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>edelweiss us</t>
-        </is>
-      </c>
+      <c r="B73" t="inlineStr"/>
       <c r="C73" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>edelweiss</t>
-        </is>
-      </c>
+      <c r="B74" t="inlineStr"/>
       <c r="C74" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>edelweiss</t>
-        </is>
-      </c>
+      <c r="B75" t="inlineStr"/>
       <c r="C75" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>edelweiss</t>
-        </is>
-      </c>
+      <c r="B76" t="inlineStr"/>
       <c r="C76" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>edelweiss</t>
-        </is>
-      </c>
-      <c r="C77" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="inlineStr"/>
-      <c r="C78" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="inlineStr"/>
-      <c r="C79" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="inlineStr"/>
-      <c r="C80" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="inlineStr"/>
-      <c r="C81" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="inlineStr"/>
-      <c r="C82" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="inlineStr"/>
-      <c r="C83" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="inlineStr"/>
-      <c r="C84" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="inlineStr"/>
-      <c r="C85" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="inlineStr"/>
-      <c r="C86" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="inlineStr"/>
-      <c r="C87" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="inlineStr"/>
-      <c r="C88" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="inlineStr"/>
-      <c r="C89" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="inlineStr"/>
-      <c r="C90" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="inlineStr"/>
-      <c r="C91" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="inlineStr"/>
-      <c r="C92" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="inlineStr"/>
-      <c r="C93" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="inlineStr"/>
-      <c r="C94" t="n">
         <v>0</v>
       </c>
     </row>

--- a/files/pdf_report.xlsx
+++ b/files/pdf_report.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C76"/>
+  <dimension ref="A1:C54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,7 +469,7 @@
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -478,7 +478,7 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -496,7 +496,7 @@
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -512,36 +512,52 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr"/>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>whiteoak capital flexi cap fund</t>
+        </is>
+      </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr"/>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>whiteoak capital flexi cap fund</t>
+        </is>
+      </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr"/>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>whiteoak capital mid cap fund</t>
+        </is>
+      </c>
       <c r="C11" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr"/>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>whiteoak capital mid cap fund</t>
+        </is>
+      </c>
       <c r="C12" t="n">
-        <v>30</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
@@ -550,11 +566,11 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>quant small cap fund</t>
+          <t>whiteoak capital elss tax saver fund</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14">
@@ -563,11 +579,11 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>quant small cap fund</t>
+          <t>whiteoak capital elss tax saver fund</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -576,11 +592,11 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>quant elss tax saver fund</t>
+          <t>whiteoak capital large cap fund</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16">
@@ -589,11 +605,11 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>quant elss tax saver fund</t>
+          <t>whiteoak capital large cap fund</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>19</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17">
@@ -602,11 +618,11 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>quant active fund</t>
+          <t>whiteoak capital large &amp; mid cap fund</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18">
@@ -615,11 +631,11 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>quant active fund</t>
+          <t>whiteoak capital large &amp; mid cap fund</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>19</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19">
@@ -628,11 +644,11 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>quant mid cap fund</t>
+          <t>whiteoak capital multi cap fund</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20">
@@ -641,11 +657,11 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>quant mid cap fund</t>
+          <t>whiteoak capital multi cap fund</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>19</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21">
@@ -654,11 +670,11 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>quant flexi cap fund</t>
+          <t>whiteoak capital pharma and healthcare fund</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22">
@@ -667,11 +683,11 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>quant flexi cap fund</t>
+          <t>whiteoak capital banking &amp; financial services fund</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23">
@@ -680,11 +696,11 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>quant large &amp; mid cap fund</t>
+          <t>whiteoak capital special opportunities fund</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24">
@@ -693,11 +709,11 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>quant large &amp; mid cap fund</t>
+          <t>whiteoak capital special opportunities fund</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>19</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25">
@@ -706,11 +722,11 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>quant infrastructure fund</t>
+          <t>whiteoak capital esg best-in-class strategy fund</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26">
@@ -719,11 +735,11 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>quant infrastructure fund</t>
+          <t>whiteoak capital esg best-in-class strategy fund</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>19</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27">
@@ -732,11 +748,11 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>quant large cap fund</t>
+          <t>whiteoak capital digital bharat fund</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28">
@@ -745,11 +761,11 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>quant large cap fund</t>
+          <t>whiteoak capital balanced advantage fund</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29">
@@ -758,11 +774,11 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>quant quantamental fund</t>
+          <t>whiteoak capital balanced advantage fund</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30">
@@ -771,11 +787,11 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>quant quantamental fund</t>
+          <t>whiteoak capital multi asset allocation fund</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31">
@@ -784,11 +800,11 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>quant absolute fund</t>
+          <t>whiteoak capital multi asset allocation fund</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32">
@@ -797,11 +813,11 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>quant absolute fund</t>
+          <t>whiteoak capital balanced hybrid fund</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33">
@@ -810,11 +826,11 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>quant momentum fund</t>
+          <t>whiteoak capital balanced hybrid fund</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34">
@@ -823,11 +839,11 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>quant momentum fund</t>
+          <t>whiteoak capital arbitrage fund</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35">
@@ -836,11 +852,11 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>quant value fund</t>
+          <t>whiteoak capital arbitrage fund</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36">
@@ -849,11 +865,11 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>quant value fund</t>
+          <t>whiteoak capital liquid fund</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37">
@@ -862,477 +878,163 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>quant business cycle fund</t>
+          <t>whiteoak capital ultra short duration fund</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>quant business cycle fund</t>
-        </is>
-      </c>
+      <c r="B38" t="inlineStr"/>
       <c r="C38" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>quant dynamic asset allocation fund</t>
-        </is>
-      </c>
+      <c r="B39" t="inlineStr"/>
       <c r="C39" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>quant dynamic asset allocation fund</t>
-        </is>
-      </c>
+      <c r="B40" t="inlineStr"/>
       <c r="C40" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>quant focused fund</t>
-        </is>
-      </c>
+      <c r="B41" t="inlineStr"/>
       <c r="C41" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>quant focused fund</t>
-        </is>
-      </c>
+      <c r="B42" t="inlineStr"/>
       <c r="C42" t="n">
-        <v>19</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>quant manufacturing fund</t>
-        </is>
-      </c>
+      <c r="B43" t="inlineStr"/>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>quant manufacturing fund</t>
-        </is>
-      </c>
+      <c r="B44" t="inlineStr"/>
       <c r="C44" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>quant psu fund</t>
-        </is>
-      </c>
+      <c r="B45" t="inlineStr"/>
       <c r="C45" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>quant psu fund</t>
-        </is>
-      </c>
+      <c r="B46" t="inlineStr"/>
       <c r="C46" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>quant bfsi fund</t>
-        </is>
-      </c>
+      <c r="B47" t="inlineStr"/>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>quant bfsi fund</t>
-        </is>
-      </c>
+      <c r="B48" t="inlineStr"/>
       <c r="C48" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>quant teck fund</t>
-        </is>
-      </c>
+      <c r="B49" t="inlineStr"/>
       <c r="C49" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>quant teck fund</t>
-        </is>
-      </c>
+      <c r="B50" t="inlineStr"/>
       <c r="C50" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>quant commodities fund</t>
-        </is>
-      </c>
+      <c r="B51" t="inlineStr"/>
       <c r="C51" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>quant commodities fund</t>
-        </is>
-      </c>
+      <c r="B52" t="inlineStr"/>
       <c r="C52" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>quant healthcare fund</t>
-        </is>
-      </c>
+      <c r="B53" t="inlineStr"/>
       <c r="C53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>quant healthcare fund</t>
-        </is>
-      </c>
+      <c r="B54" t="inlineStr"/>
       <c r="C54" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>quant consumption fund</t>
-        </is>
-      </c>
-      <c r="C55" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>quant consumption fund</t>
-        </is>
-      </c>
-      <c r="C56" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>quant esg equity fund</t>
-        </is>
-      </c>
-      <c r="C57" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>quant esg equity fund</t>
-        </is>
-      </c>
-      <c r="C58" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>quant multi asset fund</t>
-        </is>
-      </c>
-      <c r="C59" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>quant multi asset fund</t>
-        </is>
-      </c>
-      <c r="C60" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="inlineStr"/>
-      <c r="C61" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>quant liquid fund</t>
-        </is>
-      </c>
-      <c r="C62" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>quant liquid fund</t>
-        </is>
-      </c>
-      <c r="C63" t="n">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>quant overnight fund</t>
-        </is>
-      </c>
-      <c r="C64" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>quant overnight fund</t>
-        </is>
-      </c>
-      <c r="C65" t="n">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>quant gilt fund</t>
-        </is>
-      </c>
-      <c r="C66" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>quant gilt fund</t>
-        </is>
-      </c>
-      <c r="C67" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="inlineStr"/>
-      <c r="C68" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="inlineStr"/>
-      <c r="C69" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="inlineStr"/>
-      <c r="C70" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="inlineStr"/>
-      <c r="C71" t="n">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="inlineStr"/>
-      <c r="C72" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="inlineStr"/>
-      <c r="C73" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="inlineStr"/>
-      <c r="C74" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="inlineStr"/>
-      <c r="C75" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="inlineStr"/>
-      <c r="C76" t="n">
         <v>0</v>
       </c>
     </row>
